--- a/Arbitrage/Arbitrage.xlsx
+++ b/Arbitrage/Arbitrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgaust-my.sharepoint.com/personal/jhansen3_kpmg_com_au/Documents/Documents/Python/Gambling/Arbitrage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9779DF2D5694BDCB38AF4400F32F7877EB60593B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9694BE99-9AC1-4A1F-9CA8-9BD8F74F6084}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F9F9BE2AFDDC7E4D38B6623A836E7C21EA60354B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B54137-B277-4E1D-B486-3B3A2655FC33}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFL" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NBA!$A$1:$P$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NHL!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Games</t>
   </si>
@@ -60,6 +73,30 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Carlton</t>
+  </si>
+  <si>
+    <t>Gold Coast</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Greater Western Sydney</t>
+  </si>
+  <si>
+    <t>Collingwood</t>
   </si>
   <si>
     <t>Bet365</t>
@@ -788,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,92 +866,239 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <f>1/G2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="6">
+        <f>SUM(H2, H3)</f>
+        <v>0.99504950495049505</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="H3" s="5">
+        <f>1/G3</f>
+        <v>0.49504950495049505</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.0526315789473679</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.05152027027027</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.27027027027027017</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.05152027027027</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.048346055979644</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.38167938931297712</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.048346055979644</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.047232888483123</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.44843049327354262</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.047232888483123</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -1120,16 +1304,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>6</v>
@@ -1562,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -1595,28 +1779,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>6</v>
